--- a/data/公报图表模板.xlsx
+++ b/data/公报图表模板.xlsx
@@ -4,185 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2430" windowHeight="1140" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2430" windowHeight="1140" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="省分区统计" sheetId="1" r:id="rId1"/>
-    <sheet name="市分区统计" sheetId="2" r:id="rId2"/>
-    <sheet name="分月统计" sheetId="3" r:id="rId3"/>
-    <sheet name="分时段统计" sheetId="4" r:id="rId4"/>
-    <sheet name="强度分布统计" sheetId="5" r:id="rId5"/>
+    <sheet name="分区统计" sheetId="1" r:id="rId1"/>
+    <sheet name="分月统计" sheetId="3" r:id="rId2"/>
+    <sheet name="分时段统计" sheetId="4" r:id="rId3"/>
+    <sheet name="强度分布统计" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="65">
-  <si>
-    <t>地闪次数</t>
-  </si>
-  <si>
-    <t>地闪次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>市</t>
-  </si>
-  <si>
-    <t>面积（平方千米）</t>
-  </si>
-  <si>
-    <t>密度</t>
-  </si>
-  <si>
-    <t>杭州市</t>
-  </si>
-  <si>
-    <t>宁波市</t>
-  </si>
-  <si>
-    <t>温州市</t>
-  </si>
-  <si>
-    <t>湖州市</t>
-  </si>
-  <si>
-    <t>嘉兴市</t>
-  </si>
-  <si>
-    <t>绍兴市</t>
-  </si>
-  <si>
-    <t>金华市</t>
-  </si>
-  <si>
-    <t>衢州市</t>
-  </si>
-  <si>
-    <t>舟山市</t>
-  </si>
-  <si>
-    <t>台州市</t>
-  </si>
-  <si>
-    <t>丽水市</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
   <si>
     <t>总</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>比例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平均密度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宁波</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>温州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘉兴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注意：这里计算的平均密度并不可靠，因为地闪次数统计包括了水域、海域上的地闪，而面积只计算了陆地面积，对于舟山、台州、温州等沿海地区，计算结果尤不可靠</t>
-  </si>
-  <si>
-    <t>绍兴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金华</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>衢州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>舟山</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丽水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杭州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>湖州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>台州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平均密度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面积（Km2）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密度(次/Km2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>越城区</t>
-  </si>
-  <si>
-    <t>柯桥区</t>
-  </si>
-  <si>
-    <t>上虞区</t>
-  </si>
-  <si>
-    <t>诸暨市</t>
-  </si>
-  <si>
-    <t>嵊州市</t>
-  </si>
-  <si>
-    <t>新昌县</t>
-  </si>
-  <si>
-    <t>总计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地闪次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>县</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>比例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全省平均密度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全市平均密度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -205,10 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>总闪次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>左边界</t>
   </si>
   <si>
@@ -227,19 +60,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>总闪次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>注意：这里的强度指的是平均每次地闪的电流强度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平均雷暴日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -251,7 +76,123 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>总闪</t>
+    <t>注意：在计算的电闪密度时，地闪次数和行政区划面积的统计不仅指陆地，还包括了水域、临海区域还包括海域上的闪电次数和面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地闪次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>省分区统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市分县统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均密度(次/Km2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大密度(次/Km2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小密度(次/Km2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均雷暴日(天)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大雷暴日(天)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小雷暴日(天)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地闪总数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地闪总数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉兴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绍兴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衢州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丽水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舟山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>越城区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柯桥区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上虞区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诸暨市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵊州市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新昌县</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -259,11 +200,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.000%"/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -292,21 +234,8 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -316,12 +245,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,22 +273,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -375,38 +291,41 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规_地区" xfId="1"/>
-    <cellStyle name="常规_负" xfId="4"/>
-    <cellStyle name="常规_时段" xfId="3"/>
-    <cellStyle name="常规_月份" xfId="2"/>
+    <cellStyle name="常规_负" xfId="3"/>
+    <cellStyle name="常规_时段" xfId="2"/>
+    <cellStyle name="常规_月份" xfId="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -676,8 +595,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="160482784"/>
-        <c:axId val="160483344"/>
+        <c:axId val="158962416"/>
+        <c:axId val="158962976"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -964,11 +883,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="160484464"/>
-        <c:axId val="160483904"/>
+        <c:axId val="158964096"/>
+        <c:axId val="158963536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="160482784"/>
+        <c:axId val="158962416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1074,7 +993,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160483344"/>
+        <c:crossAx val="158962976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1082,7 +1001,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160483344"/>
+        <c:axId val="158962976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1191,12 +1110,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160482784"/>
+        <c:crossAx val="158962416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="160483904"/>
+        <c:axId val="158963536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1302,12 +1221,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160484464"/>
+        <c:crossAx val="158964096"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="160484464"/>
+        <c:axId val="158964096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1316,7 +1235,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160483904"/>
+        <c:crossAx val="158963536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1701,8 +1620,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="160488384"/>
-        <c:axId val="160488944"/>
+        <c:axId val="158968016"/>
+        <c:axId val="158968576"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2013,11 +1932,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="160490064"/>
-        <c:axId val="160489504"/>
+        <c:axId val="158969696"/>
+        <c:axId val="158969136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="160488384"/>
+        <c:axId val="158968016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2122,7 +2041,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160488944"/>
+        <c:crossAx val="158968576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2130,7 +2049,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160488944"/>
+        <c:axId val="158968576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2199,6 +2118,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2261,12 +2181,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160488384"/>
+        <c:crossAx val="158968016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="160489504"/>
+        <c:axId val="158969136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2306,6 +2226,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2368,12 +2289,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160490064"/>
+        <c:crossAx val="158969696"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="160490064"/>
+        <c:axId val="158969696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2382,7 +2303,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160489504"/>
+        <c:crossAx val="158969136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2399,6 +2320,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2722,8 +2644,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="160492864"/>
-        <c:axId val="161362400"/>
+        <c:axId val="160860352"/>
+        <c:axId val="160860912"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2755,7 +2677,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>强度分布统计!$E$2:$E$26</c:f>
+              <c:f>强度分布统计!$F$2:$F$26</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="25"/>
@@ -2849,11 +2771,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="161363520"/>
-        <c:axId val="161362960"/>
+        <c:axId val="160862032"/>
+        <c:axId val="160861472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="160492864"/>
+        <c:axId val="160860352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2893,6 +2815,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2959,7 +2882,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="161362400"/>
+        <c:crossAx val="160860912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2967,7 +2890,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="161362400"/>
+        <c:axId val="160860912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3036,6 +2959,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3096,12 +3020,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160492864"/>
+        <c:crossAx val="160860352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="161362960"/>
+        <c:axId val="160861472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3134,6 +3058,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3194,12 +3119,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="161363520"/>
+        <c:crossAx val="160862032"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="161363520"/>
+        <c:axId val="160862032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3208,7 +3133,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161362960"/>
+        <c:crossAx val="160861472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3225,6 +3150,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3548,8 +3474,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="161366320"/>
-        <c:axId val="161366880"/>
+        <c:axId val="160864832"/>
+        <c:axId val="160865392"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3581,7 +3507,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>强度分布统计!$F$2:$F$26</c:f>
+              <c:f>强度分布统计!$G$2:$G$26</c:f>
               <c:numCache>
                 <c:formatCode>0.000%</c:formatCode>
                 <c:ptCount val="25"/>
@@ -3675,11 +3601,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="161368000"/>
-        <c:axId val="161367440"/>
+        <c:axId val="160866512"/>
+        <c:axId val="160865952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="161366320"/>
+        <c:axId val="160864832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3719,6 +3645,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3785,7 +3712,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="161366880"/>
+        <c:crossAx val="160865392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3793,7 +3720,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="161366880"/>
+        <c:axId val="160865392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3862,6 +3789,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3922,12 +3850,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="161366320"/>
+        <c:crossAx val="160864832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="161367440"/>
+        <c:axId val="160865952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3960,6 +3888,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4020,12 +3949,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="161368000"/>
+        <c:crossAx val="160866512"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="161368000"/>
+        <c:axId val="160866512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4034,7 +3963,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161367440"/>
+        <c:crossAx val="160865952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4051,6 +3980,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6443,13 +6373,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>52387</xdr:rowOff>
@@ -6473,13 +6403,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
@@ -6794,489 +6724,422 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="14.75" customWidth="1"/>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="9.875" customWidth="1"/>
     <col min="5" max="6" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
+    <row r="1" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B1" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="13">
+        <v>15616</v>
+      </c>
+      <c r="C2" s="13">
+        <v>19374</v>
+      </c>
+      <c r="D2" s="13">
+        <v>3011</v>
+      </c>
+      <c r="E2" s="13">
+        <v>4161</v>
+      </c>
+      <c r="F2" s="13">
+        <v>9272</v>
+      </c>
+      <c r="G2" s="13">
+        <v>19839</v>
+      </c>
+      <c r="H2" s="13">
+        <v>25476</v>
+      </c>
+      <c r="I2" s="13">
+        <v>12942</v>
+      </c>
+      <c r="J2" s="13">
+        <v>17398</v>
+      </c>
+      <c r="K2" s="13">
+        <v>16926</v>
+      </c>
+      <c r="L2" s="13">
+        <v>1598</v>
+      </c>
+      <c r="M2" s="13">
+        <v>145613</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="12">
+        <v>0.93</v>
+      </c>
+      <c r="C3" s="12">
+        <v>1.46</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0.52</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0.71</v>
+      </c>
+      <c r="F3" s="12">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G3" s="12">
+        <v>1.82</v>
+      </c>
+      <c r="H3" s="12">
+        <v>1.97</v>
+      </c>
+      <c r="I3" s="12">
+        <v>0.82</v>
+      </c>
+      <c r="J3" s="12">
+        <v>1.97</v>
+      </c>
+      <c r="K3" s="12">
+        <v>0.98</v>
+      </c>
+      <c r="L3" s="12">
+        <v>0.12</v>
+      </c>
+      <c r="M3" s="12">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+    </row>
+    <row r="5" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="12">
+        <v>106</v>
+      </c>
+      <c r="C6" s="12">
+        <v>487</v>
+      </c>
+      <c r="D6" s="12">
+        <v>561</v>
+      </c>
+      <c r="E6" s="12">
+        <v>4788</v>
+      </c>
+      <c r="F6" s="12">
+        <v>1970</v>
+      </c>
+      <c r="G6" s="12">
+        <v>1360</v>
+      </c>
+      <c r="H6" s="12">
+        <v>9272</v>
+      </c>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="12">
+        <v>0.22</v>
+      </c>
+      <c r="C7" s="12">
+        <v>0.46</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="E7" s="12">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="F7" s="12">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="G7" s="12">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="H7" s="12">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="12">
+        <v>0.59</v>
+      </c>
+      <c r="C8" s="12">
+        <v>2.44</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0.84</v>
+      </c>
+      <c r="E8" s="12">
+        <v>5.64</v>
+      </c>
+      <c r="F8" s="12">
+        <v>5.18</v>
+      </c>
+      <c r="G8" s="12">
+        <v>4.42</v>
+      </c>
+      <c r="H8" s="12">
+        <v>5.64</v>
+      </c>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="12">
+        <v>0.11</v>
+      </c>
+      <c r="C9" s="12">
+        <v>0.11</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0.11</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0.26</v>
+      </c>
+      <c r="F9" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="G9" s="12">
+        <v>0.47</v>
+      </c>
+      <c r="H9" s="12">
+        <v>0.11</v>
+      </c>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="12">
+        <v>36</v>
+      </c>
+      <c r="C10" s="12">
+        <v>42</v>
+      </c>
+      <c r="D10" s="12">
+        <v>35</v>
+      </c>
+      <c r="E10" s="12">
+        <v>57</v>
+      </c>
+      <c r="F10" s="12">
+        <v>44</v>
+      </c>
+      <c r="G10" s="12">
         <v>45</v>
       </c>
+      <c r="H10" s="12">
+        <v>43</v>
+      </c>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2">
-        <v>15616</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>16596</v>
-      </c>
-      <c r="D2">
-        <f>A2/C2</f>
-        <v>0.94094962641600388</v>
-      </c>
-      <c r="E2" s="9">
-        <f t="shared" ref="E2:E13" si="0">A2/$A$13</f>
-        <v>0.10724317196953569</v>
-      </c>
-      <c r="F2">
-        <f t="shared" ref="F2:F12" si="1">$D$13</f>
-        <v>1.4053002885626875</v>
-      </c>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A11" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="12">
+        <v>43</v>
+      </c>
+      <c r="C11" s="12">
+        <v>52</v>
+      </c>
+      <c r="D11" s="12">
+        <v>41</v>
+      </c>
+      <c r="E11" s="12">
+        <v>67</v>
+      </c>
+      <c r="F11" s="12">
+        <v>54</v>
+      </c>
+      <c r="G11" s="12">
+        <v>66</v>
+      </c>
+      <c r="H11" s="12">
+        <v>67</v>
+      </c>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3">
-        <v>19374</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>9365</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D12" si="2">A3/C3</f>
-        <v>2.0687666844634278</v>
-      </c>
-      <c r="E3" s="9">
-        <f t="shared" si="0"/>
-        <v>0.13305130723218395</v>
-      </c>
-      <c r="F3">
-        <f t="shared" si="1"/>
-        <v>1.4053002885626875</v>
-      </c>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A12" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="12">
+        <v>30</v>
+      </c>
+      <c r="C12" s="12">
+        <v>31</v>
+      </c>
+      <c r="D12" s="12">
+        <v>30</v>
+      </c>
+      <c r="E12" s="12">
+        <v>45</v>
+      </c>
+      <c r="F12" s="12">
+        <v>36</v>
+      </c>
+      <c r="G12" s="12">
+        <v>39</v>
+      </c>
+      <c r="H12" s="12">
+        <v>30</v>
+      </c>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4">
-        <v>12942</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>11784</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="2"/>
-        <v>1.0982688391038697</v>
-      </c>
-      <c r="E4" s="9">
-        <f t="shared" si="0"/>
-        <v>8.8879426974239936E-2</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="1"/>
-        <v>1.4053002885626875</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5">
-        <v>3011</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>5794</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="2"/>
-        <v>0.51967552640662751</v>
-      </c>
-      <c r="E5" s="9">
-        <f t="shared" si="0"/>
-        <v>2.0678098796123971E-2</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="1"/>
-        <v>1.4053002885626875</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6">
-        <v>4161</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>3915</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="2"/>
-        <v>1.0628352490421455</v>
-      </c>
-      <c r="E6" s="9">
-        <f t="shared" si="0"/>
-        <v>2.8575745297466572E-2</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="1"/>
-        <v>1.4053002885626875</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="6" customFormat="1">
-      <c r="A7" s="6">
-        <v>9272</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="6">
-        <v>8256</v>
-      </c>
-      <c r="D7" s="6">
-        <f t="shared" si="2"/>
-        <v>1.123062015503876</v>
-      </c>
-      <c r="E7" s="18">
-        <f t="shared" si="0"/>
-        <v>6.3675633356911815E-2</v>
-      </c>
-      <c r="F7" s="6">
-        <f t="shared" si="1"/>
-        <v>1.4053002885626875</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8">
-        <v>19839</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8">
-        <v>10919</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="2"/>
-        <v>1.8169246267973258</v>
-      </c>
-      <c r="E8" s="9">
-        <f t="shared" si="0"/>
-        <v>0.13624470342620507</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="1"/>
-        <v>1.4053002885626875</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9">
-        <v>25476</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9">
-        <v>9413</v>
-      </c>
-      <c r="D9">
-        <f>A9/C9</f>
-        <v>2.7064697758419207</v>
-      </c>
-      <c r="E9" s="9">
-        <f t="shared" si="0"/>
-        <v>0.17495690632017746</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="1"/>
-        <v>1.4053002885626875</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10">
-        <v>1598</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10">
-        <v>1440</v>
-      </c>
-      <c r="D10">
-        <f>A10/C10</f>
-        <v>1.1097222222222223</v>
-      </c>
-      <c r="E10" s="9">
-        <f t="shared" si="0"/>
-        <v>1.0974294877517804E-2</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="1"/>
-        <v>1.4053002885626875</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11">
-        <v>17398</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11">
-        <v>8837</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="2"/>
-        <v>1.9687676813398212</v>
-      </c>
-      <c r="E11" s="9">
-        <f t="shared" si="0"/>
-        <v>0.1194810902872683</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="1"/>
-        <v>1.4053002885626875</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12">
-        <v>16926</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C12">
-        <v>17298</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="2"/>
-        <v>0.978494623655914</v>
-      </c>
-      <c r="E12" s="9">
-        <f t="shared" si="0"/>
-        <v>0.11623962146236944</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="1"/>
-        <v>1.4053002885626875</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13">
-        <f>SUM(A2:A12)</f>
-        <v>145613</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13">
-        <f>SUM(C2:C12)</f>
-        <v>103617</v>
-      </c>
-      <c r="D13">
-        <f>A13/C13</f>
-        <v>1.4053002885626875</v>
-      </c>
-      <c r="E13" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16">
-        <f>A2</f>
-        <v>15616</v>
-      </c>
-      <c r="C16">
-        <f>A3</f>
-        <v>19374</v>
-      </c>
-      <c r="D16">
-        <f>A4</f>
-        <v>12942</v>
-      </c>
-      <c r="E16">
-        <f>A5</f>
-        <v>3011</v>
-      </c>
-      <c r="F16">
-        <f>A6</f>
-        <v>4161</v>
-      </c>
-      <c r="G16">
-        <f>A7</f>
-        <v>9272</v>
-      </c>
-      <c r="H16">
-        <f>A8</f>
-        <v>19839</v>
-      </c>
-      <c r="I16">
-        <f>A9</f>
-        <v>25476</v>
-      </c>
-      <c r="J16">
-        <f>A10</f>
-        <v>1598</v>
-      </c>
-      <c r="K16">
-        <f>A11</f>
-        <v>17398</v>
-      </c>
-      <c r="L16">
-        <f>A12</f>
-        <v>16926</v>
-      </c>
-      <c r="M16">
-        <f>A13</f>
-        <v>145613</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="3">
-        <f>D2</f>
-        <v>0.94094962641600388</v>
-      </c>
-      <c r="C17" s="3">
-        <f>D3</f>
-        <v>2.0687666844634278</v>
-      </c>
-      <c r="D17" s="3">
-        <f>D4</f>
-        <v>1.0982688391038697</v>
-      </c>
-      <c r="E17" s="3">
-        <f>D5</f>
-        <v>0.51967552640662751</v>
-      </c>
-      <c r="F17" s="3">
-        <f>D6</f>
-        <v>1.0628352490421455</v>
-      </c>
-      <c r="G17" s="8">
-        <f>D7</f>
-        <v>1.123062015503876</v>
-      </c>
-      <c r="H17" s="3">
-        <f>D8</f>
-        <v>1.8169246267973258</v>
-      </c>
-      <c r="I17" s="3">
-        <f>D9</f>
-        <v>2.7064697758419207</v>
-      </c>
-      <c r="J17" s="3">
-        <f>D10</f>
-        <v>1.1097222222222223</v>
-      </c>
-      <c r="K17" s="3">
-        <f>D11</f>
-        <v>1.9687676813398212</v>
-      </c>
-      <c r="L17" s="3">
-        <f>D12</f>
-        <v>0.978494623655914</v>
-      </c>
-      <c r="M17" s="3">
-        <f>D13</f>
-        <v>1.4053002885626875</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="1"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7287,343 +7150,46 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="12.875" customWidth="1"/>
-    <col min="3" max="3" width="12.75" customWidth="1"/>
-    <col min="4" max="4" width="12.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2">
-        <v>106</v>
-      </c>
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2">
-        <v>498</v>
-      </c>
-      <c r="D2">
-        <f t="shared" ref="D2:D8" si="0">A2/C2</f>
-        <v>0.21285140562248997</v>
-      </c>
-      <c r="E2" s="9">
-        <f>A2/$A$8</f>
-        <v>1.1432269197584125E-2</v>
-      </c>
-      <c r="F2" s="13">
-        <f>$D$8</f>
-        <v>1.123062015503876</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3">
-        <v>487</v>
-      </c>
-      <c r="B3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3">
-        <v>1041</v>
-      </c>
-      <c r="D3">
-        <f t="shared" si="0"/>
-        <v>0.46781940441882808</v>
-      </c>
-      <c r="E3" s="9">
-        <f t="shared" ref="E3:E8" si="1">A3/$A$8</f>
-        <v>5.2523727351164798E-2</v>
-      </c>
-      <c r="F3" s="13">
-        <f t="shared" ref="F3:F7" si="2">$D$8</f>
-        <v>1.123062015503876</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4">
-        <v>561</v>
-      </c>
-      <c r="B4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4">
-        <v>1403</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>0.39985744832501779</v>
-      </c>
-      <c r="E4" s="9">
-        <f t="shared" si="1"/>
-        <v>6.0504745470232962E-2</v>
-      </c>
-      <c r="F4" s="13">
-        <f t="shared" si="2"/>
-        <v>1.123062015503876</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5">
-        <v>4788</v>
-      </c>
-      <c r="B5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5">
-        <v>2311</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>2.0718303764604067</v>
-      </c>
-      <c r="E5" s="9">
-        <f t="shared" si="1"/>
-        <v>0.51639344262295084</v>
-      </c>
-      <c r="F5" s="13">
-        <f t="shared" si="2"/>
-        <v>1.123062015503876</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6">
-        <v>1970</v>
-      </c>
-      <c r="B6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6">
-        <v>1790</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>1.1005586592178771</v>
-      </c>
-      <c r="E6" s="9">
-        <f t="shared" si="1"/>
-        <v>0.21246764452113892</v>
-      </c>
-      <c r="F6" s="13">
-        <f t="shared" si="2"/>
-        <v>1.123062015503876</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7">
-        <v>1360</v>
-      </c>
-      <c r="B7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7">
-        <v>1213</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>1.1211871393239901</v>
-      </c>
-      <c r="E7" s="9">
-        <f t="shared" si="1"/>
-        <v>0.14667817083692838</v>
-      </c>
-      <c r="F7" s="13">
-        <f t="shared" si="2"/>
-        <v>1.123062015503876</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8">
-        <f>SUM(A2:A7)</f>
-        <v>9272</v>
-      </c>
-      <c r="B8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8">
-        <f>SUM(C2:C7)</f>
-        <v>8256</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>1.123062015503876</v>
-      </c>
-      <c r="E8" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <f>A2</f>
-        <v>106</v>
-      </c>
-      <c r="C12">
-        <f>A3</f>
-        <v>487</v>
-      </c>
-      <c r="D12">
-        <f>A4</f>
-        <v>561</v>
-      </c>
-      <c r="E12">
-        <f>A5</f>
-        <v>4788</v>
-      </c>
-      <c r="F12">
-        <f>A6</f>
-        <v>1970</v>
-      </c>
-      <c r="G12">
-        <f>A7</f>
-        <v>1360</v>
-      </c>
-      <c r="H12">
-        <f>A8</f>
-        <v>9272</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="13">
-        <f>D2</f>
-        <v>0.21285140562248997</v>
-      </c>
-      <c r="C13" s="13">
-        <f>D3</f>
-        <v>0.46781940441882808</v>
-      </c>
-      <c r="D13" s="13">
-        <f>D4</f>
-        <v>0.39985744832501779</v>
-      </c>
-      <c r="E13" s="13">
-        <f>D5</f>
-        <v>2.0718303764604067</v>
-      </c>
-      <c r="F13" s="13">
-        <f>D6</f>
-        <v>1.1005586592178771</v>
-      </c>
-      <c r="G13" s="13">
-        <f>D7</f>
-        <v>1.1211871393239901</v>
-      </c>
-      <c r="H13" s="13">
-        <f>D8</f>
-        <v>1.123062015503876</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="5" max="5" width="14.125" customWidth="1"/>
     <col min="6" max="6" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="16">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="7">
         <v>0</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="6">
         <v>0</v>
       </c>
       <c r="D2" s="1">
@@ -7637,14 +7203,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="16">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="7">
         <v>29</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="6">
         <v>1</v>
       </c>
       <c r="D3" s="1">
@@ -7658,14 +7224,14 @@
         <v>40.299999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="16">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="7">
         <v>36</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="6">
         <v>3</v>
       </c>
       <c r="D4" s="1">
@@ -7679,14 +7245,14 @@
         <v>126.60000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="16">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="7">
         <v>628</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="6">
         <v>127</v>
       </c>
       <c r="D5" s="1">
@@ -7700,14 +7266,14 @@
         <v>39.337795275590544</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="16">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="7">
         <v>940</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="6">
         <v>97</v>
       </c>
       <c r="D6" s="1">
@@ -7721,14 +7287,14 @@
         <v>44.401030927835045</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="16">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="7">
         <v>1747</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="6">
         <v>86</v>
       </c>
       <c r="D7" s="1">
@@ -7742,14 +7308,14 @@
         <v>24.269767441860463</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="16">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="7">
         <v>1663</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="6">
         <v>82</v>
       </c>
       <c r="D8" s="1">
@@ -7763,14 +7329,14 @@
         <v>36.94146341463415</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="16">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="7">
         <v>2823</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="6">
         <v>54</v>
       </c>
       <c r="D9" s="1">
@@ -7784,14 +7350,14 @@
         <v>25.581481481481479</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="16">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="7">
         <v>445</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="6">
         <v>20</v>
       </c>
       <c r="D10" s="1">
@@ -7805,14 +7371,14 @@
         <v>40.054999999999993</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="16">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="7">
         <v>7</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="6">
         <v>9</v>
       </c>
       <c r="D11" s="1">
@@ -7826,14 +7392,14 @@
         <v>33.377777777777773</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="16">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="7">
         <v>454</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="6">
         <v>21</v>
       </c>
       <c r="D12" s="1">
@@ -7847,14 +7413,14 @@
         <v>30.728571428571428</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="16">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="7">
         <v>0</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="6">
         <v>0</v>
       </c>
       <c r="D13" s="1">
@@ -7868,9 +7434,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="B14" s="1">
         <f>SUM(B2:B13)</f>
@@ -7887,9 +7453,9 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -7900,43 +7466,43 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="10.5" customWidth="1"/>
     <col min="4" max="5" width="12.875" customWidth="1"/>
     <col min="6" max="6" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="16">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="8">
         <v>0</v>
       </c>
       <c r="B2">
@@ -7956,8 +7522,8 @@
         <v>33.111999999999995</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="16">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
       <c r="B3">
@@ -7977,8 +7543,8 @@
         <v>31.558333333333337</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="16">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="8">
         <v>2</v>
       </c>
       <c r="B4">
@@ -7998,8 +7564,8 @@
         <v>36.026315789473685</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="16">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="8">
         <v>3</v>
       </c>
       <c r="B5">
@@ -8019,8 +7585,8 @@
         <v>26.694117647058825</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="16">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="8">
         <v>4</v>
       </c>
       <c r="B6">
@@ -8040,8 +7606,8 @@
         <v>38.116666666666674</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="16">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="8">
         <v>5</v>
       </c>
       <c r="B7">
@@ -8061,8 +7627,8 @@
         <v>38.868181818181817</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="16">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="8">
         <v>6</v>
       </c>
       <c r="B8">
@@ -8082,8 +7648,8 @@
         <v>52.304347826086953</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="16">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="8">
         <v>7</v>
       </c>
       <c r="B9">
@@ -8103,8 +7669,8 @@
         <v>51.318918918918911</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="16">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="8">
         <v>8</v>
       </c>
       <c r="B10">
@@ -8124,8 +7690,8 @@
         <v>48.2</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="16">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="8">
         <v>9</v>
       </c>
       <c r="B11">
@@ -8145,8 +7711,8 @@
         <v>41.64</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="16">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="8">
         <v>10</v>
       </c>
       <c r="B12">
@@ -8166,8 +7732,8 @@
         <v>33.4</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="16">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="8">
         <v>11</v>
       </c>
       <c r="B13">
@@ -8187,8 +7753,8 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="16">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="8">
         <v>12</v>
       </c>
       <c r="B14">
@@ -8208,8 +7774,8 @@
         <v>26.137499999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="16">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="8">
         <v>13</v>
       </c>
       <c r="B15">
@@ -8229,8 +7795,8 @@
         <v>28.016666666666662</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="16">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="8">
         <v>14</v>
       </c>
       <c r="B16">
@@ -8250,8 +7816,8 @@
         <v>42.372</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="16">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="8">
         <v>15</v>
       </c>
       <c r="B17">
@@ -8271,8 +7837,8 @@
         <v>32.259459459459471</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="16">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="8">
         <v>16</v>
       </c>
       <c r="B18">
@@ -8292,8 +7858,8 @@
         <v>26.741379310344833</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="16">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="8">
         <v>17</v>
       </c>
       <c r="B19">
@@ -8313,8 +7879,8 @@
         <v>29.065957446808518</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="16">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="8">
         <v>18</v>
       </c>
       <c r="B20">
@@ -8334,8 +7900,8 @@
         <v>37.262499999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="16">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="8">
         <v>19</v>
       </c>
       <c r="B21">
@@ -8355,8 +7921,8 @@
         <v>39.676666666666662</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="16">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="8">
         <v>20</v>
       </c>
       <c r="B22">
@@ -8376,8 +7942,8 @@
         <v>30.567647058823521</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="16">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="8">
         <v>21</v>
       </c>
       <c r="B23">
@@ -8397,8 +7963,8 @@
         <v>33.799999999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="16">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="8">
         <v>22</v>
       </c>
       <c r="B24">
@@ -8418,8 +7984,8 @@
         <v>41.13636363636364</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="16">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="8">
         <v>23</v>
       </c>
       <c r="B25">
@@ -8439,9 +8005,9 @@
         <v>29.741935483870964</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B26" s="1">
         <f>SUM(B2:B25)</f>
@@ -8456,9 +8022,9 @@
         <v>9272</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -8469,45 +8035,48 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="5" max="5" width="14.75" customWidth="1"/>
-    <col min="6" max="6" width="13.625" customWidth="1"/>
+    <col min="6" max="6" width="14.75" customWidth="1"/>
+    <col min="7" max="7" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="F1" t="s">
-        <v>62</v>
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="17">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="9">
         <v>0</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="9">
         <v>5</v>
       </c>
       <c r="C2">
@@ -8516,20 +8085,24 @@
       <c r="D2">
         <v>3</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2">
+        <f>C2+D2</f>
+        <v>8</v>
+      </c>
+      <c r="F2" s="5">
         <f>C2/$C$27</f>
         <v>5.699954400364797E-4</v>
       </c>
-      <c r="F2" s="9">
+      <c r="G2" s="5">
         <f>D2/$D$27</f>
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="17">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="9">
         <v>5</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="9">
         <v>10</v>
       </c>
       <c r="C3">
@@ -8538,20 +8111,24 @@
       <c r="D3">
         <v>50</v>
       </c>
-      <c r="E3" s="9">
-        <f>C3/$C$27+E2</f>
+      <c r="E3">
+        <f t="shared" ref="E3:E27" si="0">C3+D3</f>
+        <v>138</v>
+      </c>
+      <c r="F3" s="5">
+        <f>C3/$C$27+F2</f>
         <v>1.0601915184678522E-2</v>
       </c>
-      <c r="F3" s="19">
-        <f>D3/$D$27+F2</f>
+      <c r="G3" s="10">
+        <f>D3/$D$27+G2</f>
         <v>0.10600000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="17">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="9">
         <v>10</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="9">
         <v>15</v>
       </c>
       <c r="C4">
@@ -8560,20 +8137,24 @@
       <c r="D4">
         <v>62</v>
       </c>
-      <c r="E4" s="9">
-        <f>C4/$C$27+E3</f>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>1056</v>
+      </c>
+      <c r="F4" s="5">
+        <f>C4/$C$27+F3</f>
         <v>0.1239170086639307</v>
       </c>
-      <c r="F4" s="9">
-        <f>D4/$D$27+F3</f>
+      <c r="G4" s="5">
+        <f>D4/$D$27+G3</f>
         <v>0.23</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="17">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="9">
         <v>15</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="9">
         <v>20</v>
       </c>
       <c r="C5">
@@ -8582,20 +8163,24 @@
       <c r="D5">
         <v>56</v>
       </c>
-      <c r="E5" s="9">
-        <f>C5/$C$27+E4</f>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>1679</v>
+      </c>
+      <c r="F5" s="5">
+        <f>C5/$C$27+F4</f>
         <v>0.30893752849977202</v>
       </c>
-      <c r="F5" s="9">
-        <f t="shared" ref="F5:F26" si="0">D5/$D$27+F4</f>
+      <c r="G5" s="5">
+        <f t="shared" ref="G5:G26" si="1">D5/$D$27+G4</f>
         <v>0.34200000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="17">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="9">
         <v>20</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="9">
         <v>25</v>
       </c>
       <c r="C6">
@@ -8604,20 +8189,24 @@
       <c r="D6">
         <v>63</v>
       </c>
-      <c r="E6" s="9">
-        <f>C6/$C$27+E5</f>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>1619</v>
+      </c>
+      <c r="F6" s="5">
+        <f>C6/$C$27+F5</f>
         <v>0.48632010943912451</v>
       </c>
-      <c r="F6" s="9">
-        <f t="shared" si="0"/>
+      <c r="G6" s="5">
+        <f t="shared" si="1"/>
         <v>0.46800000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="17">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="9">
         <v>25</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="9">
         <v>30</v>
       </c>
       <c r="C7">
@@ -8626,20 +8215,24 @@
       <c r="D7">
         <v>60</v>
       </c>
-      <c r="E7" s="9">
-        <f t="shared" ref="E7:E26" si="1">C7/$C$27+E6</f>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>1239</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" ref="F7:F26" si="2">C7/$C$27+F6</f>
         <v>0.62072503419972647</v>
       </c>
-      <c r="F7" s="9">
-        <f t="shared" si="0"/>
+      <c r="G7" s="5">
+        <f t="shared" si="1"/>
         <v>0.58800000000000008</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="17">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="9">
         <v>30</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="9">
         <v>35</v>
       </c>
       <c r="C8">
@@ -8648,20 +8241,24 @@
       <c r="D8">
         <v>33</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>906</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="2"/>
+        <v>0.7202462380300958</v>
+      </c>
+      <c r="G8" s="5">
         <f t="shared" si="1"/>
-        <v>0.7202462380300958</v>
-      </c>
-      <c r="F8" s="9">
-        <f t="shared" si="0"/>
         <v>0.65400000000000014</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="17">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="9">
         <v>35</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="9">
         <v>40</v>
       </c>
       <c r="C9">
@@ -8670,20 +8267,24 @@
       <c r="D9">
         <v>25</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>625</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="2"/>
+        <v>0.78864569083447333</v>
+      </c>
+      <c r="G9" s="5">
         <f t="shared" si="1"/>
-        <v>0.78864569083447333</v>
-      </c>
-      <c r="F9" s="9">
-        <f t="shared" si="0"/>
         <v>0.70400000000000018</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="17">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="9">
         <v>40</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="9">
         <v>45</v>
       </c>
       <c r="C10">
@@ -8692,20 +8293,24 @@
       <c r="D10">
         <v>27</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>421</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="2"/>
+        <v>0.83356133150934797</v>
+      </c>
+      <c r="G10" s="5">
         <f t="shared" si="1"/>
-        <v>0.83356133150934797</v>
-      </c>
-      <c r="F10" s="9">
-        <f t="shared" si="0"/>
         <v>0.75800000000000023</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="17">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="9">
         <v>45</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="9">
         <v>50</v>
       </c>
       <c r="C11">
@@ -8714,20 +8319,24 @@
       <c r="D11">
         <v>28</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>326</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="2"/>
+        <v>0.86753305973552219</v>
+      </c>
+      <c r="G11" s="5">
         <f t="shared" si="1"/>
-        <v>0.86753305973552219</v>
-      </c>
-      <c r="F11" s="9">
-        <f t="shared" si="0"/>
         <v>0.81400000000000028</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="17">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="9">
         <v>50</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="9">
         <v>55</v>
       </c>
       <c r="C12">
@@ -8736,20 +8345,24 @@
       <c r="D12">
         <v>19</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>248</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" si="2"/>
+        <v>0.89363885088919293</v>
+      </c>
+      <c r="G12" s="5">
         <f t="shared" si="1"/>
-        <v>0.89363885088919293</v>
-      </c>
-      <c r="F12" s="9">
-        <f t="shared" si="0"/>
         <v>0.85200000000000031</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="17">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="9">
         <v>55</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="9">
         <v>60</v>
       </c>
       <c r="C13">
@@ -8758,20 +8371,24 @@
       <c r="D13">
         <v>13</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>202</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="2"/>
+        <v>0.9151846785225719</v>
+      </c>
+      <c r="G13" s="5">
         <f t="shared" si="1"/>
-        <v>0.9151846785225719</v>
-      </c>
-      <c r="F13" s="9">
-        <f t="shared" si="0"/>
         <v>0.87800000000000034</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="17">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="9">
         <v>60</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="9">
         <v>65</v>
       </c>
       <c r="C14">
@@ -8780,20 +8397,24 @@
       <c r="D14">
         <v>4</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="2"/>
+        <v>0.93182854537163706</v>
+      </c>
+      <c r="G14" s="5">
         <f t="shared" si="1"/>
-        <v>0.93182854537163706</v>
-      </c>
-      <c r="F14" s="9">
-        <f t="shared" si="0"/>
         <v>0.88600000000000034</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="17">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="9">
         <v>65</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="9">
         <v>70</v>
       </c>
       <c r="C15">
@@ -8802,20 +8423,24 @@
       <c r="D15">
         <v>12</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>113</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="2"/>
+        <v>0.94334245326037391</v>
+      </c>
+      <c r="G15" s="5">
         <f t="shared" si="1"/>
-        <v>0.94334245326037391</v>
-      </c>
-      <c r="F15" s="9">
-        <f t="shared" si="0"/>
         <v>0.91000000000000036</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="17">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="9">
         <v>70</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="9">
         <v>75</v>
       </c>
       <c r="C16">
@@ -8824,20 +8449,24 @@
       <c r="D16">
         <v>2</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="2"/>
+        <v>0.95337437300501593</v>
+      </c>
+      <c r="G16" s="5">
         <f t="shared" si="1"/>
-        <v>0.95337437300501593</v>
-      </c>
-      <c r="F16" s="9">
-        <f t="shared" si="0"/>
         <v>0.91400000000000037</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="17">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="9">
         <v>75</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="9">
         <v>80</v>
       </c>
       <c r="C17">
@@ -8846,20 +8475,24 @@
       <c r="D17">
         <v>5</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="2"/>
+        <v>0.95987232102143183</v>
+      </c>
+      <c r="G17" s="5">
         <f t="shared" si="1"/>
-        <v>0.95987232102143183</v>
-      </c>
-      <c r="F17" s="9">
-        <f t="shared" si="0"/>
         <v>0.92400000000000038</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="17">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="9">
         <v>80</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="9">
         <v>85</v>
       </c>
       <c r="C18">
@@ -8868,20 +8501,24 @@
       <c r="D18">
         <v>4</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" si="2"/>
+        <v>0.96568627450980393</v>
+      </c>
+      <c r="G18" s="5">
         <f t="shared" si="1"/>
-        <v>0.96568627450980393</v>
-      </c>
-      <c r="F18" s="9">
-        <f t="shared" si="0"/>
         <v>0.93200000000000038</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="17">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="9">
         <v>85</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="9">
         <v>90</v>
       </c>
       <c r="C19">
@@ -8890,20 +8527,24 @@
       <c r="D19">
         <v>4</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="2"/>
+        <v>0.97013223894208844</v>
+      </c>
+      <c r="G19" s="5">
         <f t="shared" si="1"/>
-        <v>0.97013223894208844</v>
-      </c>
-      <c r="F19" s="9">
-        <f t="shared" si="0"/>
         <v>0.94000000000000039</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="17">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="9">
         <v>90</v>
       </c>
-      <c r="B20" s="17">
+      <c r="B20" s="9">
         <v>95</v>
       </c>
       <c r="C20">
@@ -8912,20 +8553,24 @@
       <c r="D20">
         <v>3</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" si="2"/>
+        <v>0.97526219790241675</v>
+      </c>
+      <c r="G20" s="5">
         <f t="shared" si="1"/>
-        <v>0.97526219790241675</v>
-      </c>
-      <c r="F20" s="9">
-        <f t="shared" si="0"/>
         <v>0.9460000000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="17">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="9">
         <v>95</v>
       </c>
-      <c r="B21" s="17">
+      <c r="B21" s="9">
         <v>100</v>
       </c>
       <c r="C21">
@@ -8934,20 +8579,24 @@
       <c r="D21">
         <v>2</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" si="2"/>
+        <v>0.97822617419060642</v>
+      </c>
+      <c r="G21" s="5">
         <f t="shared" si="1"/>
-        <v>0.97822617419060642</v>
-      </c>
-      <c r="F21" s="9">
-        <f t="shared" si="0"/>
         <v>0.9500000000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="17">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="9">
         <v>100</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B22" s="9">
         <v>150</v>
       </c>
       <c r="C22">
@@ -8956,20 +8605,24 @@
       <c r="D22">
         <v>18</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>178</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" si="2"/>
+        <v>0.99646602827177377</v>
+      </c>
+      <c r="G22" s="5">
         <f t="shared" si="1"/>
-        <v>0.99646602827177377</v>
-      </c>
-      <c r="F22" s="9">
-        <f t="shared" si="0"/>
         <v>0.98600000000000043</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="17">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="9">
         <v>150</v>
       </c>
-      <c r="B23" s="17">
+      <c r="B23" s="9">
         <v>200</v>
       </c>
       <c r="C23">
@@ -8978,20 +8631,24 @@
       <c r="D23">
         <v>3</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" si="2"/>
+        <v>0.99829001367989045</v>
+      </c>
+      <c r="G23" s="5">
         <f t="shared" si="1"/>
-        <v>0.99829001367989045</v>
-      </c>
-      <c r="F23" s="9">
-        <f t="shared" si="0"/>
         <v>0.99200000000000044</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="17">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="9">
         <v>200</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B24" s="9">
         <v>250</v>
       </c>
       <c r="C24">
@@ -9000,20 +8657,24 @@
       <c r="D24">
         <v>1</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F24" s="5">
+        <f t="shared" si="2"/>
+        <v>0.99931600547195609</v>
+      </c>
+      <c r="G24" s="5">
         <f t="shared" si="1"/>
-        <v>0.99931600547195609</v>
-      </c>
-      <c r="F24" s="9">
-        <f t="shared" si="0"/>
         <v>0.99400000000000044</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="17">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="9">
         <v>250</v>
       </c>
-      <c r="B25" s="17">
+      <c r="B25" s="9">
         <v>300</v>
       </c>
       <c r="C25">
@@ -9022,20 +8683,24 @@
       <c r="D25">
         <v>2</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" si="2"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="G25" s="5">
         <f t="shared" si="1"/>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="F25" s="9">
-        <f t="shared" si="0"/>
         <v>0.99800000000000044</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="17">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="9">
         <v>300</v>
       </c>
-      <c r="B26" s="17">
+      <c r="B26" s="9">
         <v>1000</v>
       </c>
       <c r="C26">
@@ -9044,18 +8709,22 @@
       <c r="D26">
         <v>1</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" si="2"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="G26" s="5">
         <f t="shared" si="1"/>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="F26" s="9">
-        <f t="shared" si="0"/>
         <v>1.0000000000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="C27">
         <f>SUM(C2:C26)</f>
@@ -9065,19 +8734,15 @@
         <f>SUM(D2:D26)</f>
         <v>500</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="B28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28">
-        <f>C27+D27</f>
+      <c r="E27">
+        <f t="shared" si="0"/>
         <v>9272</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/公报图表模板.xlsx
+++ b/data/公报图表模板.xlsx
@@ -279,7 +279,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -319,6 +319,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -595,8 +599,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="158962416"/>
-        <c:axId val="158962976"/>
+        <c:axId val="198183456"/>
+        <c:axId val="198184016"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -670,7 +674,7 @@
             <c:numRef>
               <c:f>分月统计!$E$2:$E$13</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -830,7 +834,7 @@
             <c:numRef>
               <c:f>分月统计!$F$2:$F$13</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -883,11 +887,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="158964096"/>
-        <c:axId val="158963536"/>
+        <c:axId val="198185136"/>
+        <c:axId val="198184576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="158962416"/>
+        <c:axId val="198183456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -993,7 +997,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="158962976"/>
+        <c:crossAx val="198184016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1001,7 +1005,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="158962976"/>
+        <c:axId val="198184016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1110,12 +1114,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="158962416"/>
+        <c:crossAx val="198183456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="158963536"/>
+        <c:axId val="198184576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1186,7 +1190,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1221,12 +1225,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="158964096"/>
+        <c:crossAx val="198185136"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="158964096"/>
+        <c:axId val="198185136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1235,7 +1239,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158963536"/>
+        <c:crossAx val="198184576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1620,8 +1624,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="158968016"/>
-        <c:axId val="158968576"/>
+        <c:axId val="198189056"/>
+        <c:axId val="198189616"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1695,7 +1699,7 @@
             <c:numRef>
               <c:f>分时段统计!$E$2:$E$25</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>30.412101910828042</c:v>
@@ -1843,7 +1847,7 @@
             <c:numRef>
               <c:f>分时段统计!$F$2:$F$25</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>33.111999999999995</c:v>
@@ -1932,11 +1936,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="158969696"/>
-        <c:axId val="158969136"/>
+        <c:axId val="198190736"/>
+        <c:axId val="198190176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="158968016"/>
+        <c:axId val="198189056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2041,7 +2045,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="158968576"/>
+        <c:crossAx val="198189616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2049,7 +2053,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="158968576"/>
+        <c:axId val="198189616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2181,12 +2185,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="158968016"/>
+        <c:crossAx val="198189056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="158969136"/>
+        <c:axId val="198190176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2256,7 +2260,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2289,12 +2293,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="158969696"/>
+        <c:crossAx val="198190736"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="158969696"/>
+        <c:axId val="198190736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2303,7 +2307,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158969136"/>
+        <c:crossAx val="198190176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2644,8 +2648,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="160860352"/>
-        <c:axId val="160860912"/>
+        <c:axId val="198193536"/>
+        <c:axId val="198194096"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2771,11 +2775,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="160862032"/>
-        <c:axId val="160861472"/>
+        <c:axId val="198195216"/>
+        <c:axId val="198194656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="160860352"/>
+        <c:axId val="198193536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2882,7 +2886,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160860912"/>
+        <c:crossAx val="198194096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2890,7 +2894,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160860912"/>
+        <c:axId val="198194096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3020,12 +3024,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160860352"/>
+        <c:crossAx val="198193536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="160861472"/>
+        <c:axId val="198194656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3119,12 +3123,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160862032"/>
+        <c:crossAx val="198195216"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="160862032"/>
+        <c:axId val="198195216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3133,7 +3137,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160861472"/>
+        <c:crossAx val="198194656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3474,8 +3478,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="160864832"/>
-        <c:axId val="160865392"/>
+        <c:axId val="198198016"/>
+        <c:axId val="198198576"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3601,11 +3605,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="160866512"/>
-        <c:axId val="160865952"/>
+        <c:axId val="199130832"/>
+        <c:axId val="198199136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="160864832"/>
+        <c:axId val="198198016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3712,7 +3716,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160865392"/>
+        <c:crossAx val="198198576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3720,7 +3724,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160865392"/>
+        <c:axId val="198198576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3850,12 +3854,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160864832"/>
+        <c:crossAx val="198198016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="160865952"/>
+        <c:axId val="198199136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3949,12 +3953,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160866512"/>
+        <c:crossAx val="199130832"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="160866512"/>
+        <c:axId val="199130832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3963,7 +3967,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160865952"/>
+        <c:crossAx val="198199136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7153,7 +7157,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7196,10 +7200,10 @@
         <f>B2+C2</f>
         <v>0</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="17">
         <v>0</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="17">
         <v>0</v>
       </c>
     </row>
@@ -7217,10 +7221,10 @@
         <f t="shared" ref="D3:D13" si="0">B3+C3</f>
         <v>30</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="17">
         <v>82.193103448275849</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="17">
         <v>40.299999999999997</v>
       </c>
     </row>
@@ -7238,10 +7242,10 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="17">
         <v>33.594444444444441</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="17">
         <v>126.60000000000001</v>
       </c>
     </row>
@@ -7259,10 +7263,10 @@
         <f t="shared" si="0"/>
         <v>755</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="17">
         <v>24.423726114649703</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="17">
         <v>39.337795275590544</v>
       </c>
     </row>
@@ -7280,10 +7284,10 @@
         <f t="shared" si="0"/>
         <v>1037</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="17">
         <v>33.874574468085086</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="17">
         <v>44.401030927835045</v>
       </c>
     </row>
@@ -7301,10 +7305,10 @@
         <f t="shared" si="0"/>
         <v>1833</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="17">
         <v>30.676016027475626</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="17">
         <v>24.269767441860463</v>
       </c>
     </row>
@@ -7322,10 +7326,10 @@
         <f t="shared" si="0"/>
         <v>1745</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="17">
         <v>34.334515935057127</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="17">
         <v>36.94146341463415</v>
       </c>
     </row>
@@ -7343,10 +7347,10 @@
         <f t="shared" si="0"/>
         <v>2877</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="17">
         <v>31.336733970952888</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="17">
         <v>25.581481481481479</v>
       </c>
     </row>
@@ -7364,10 +7368,10 @@
         <f t="shared" si="0"/>
         <v>465</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="17">
         <v>34.913707865168533</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="17">
         <v>40.054999999999993</v>
       </c>
     </row>
@@ -7385,10 +7389,10 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="17">
         <v>32.199999999999996</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="17">
         <v>33.377777777777773</v>
       </c>
     </row>
@@ -7406,10 +7410,10 @@
         <f t="shared" si="0"/>
         <v>475</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="17">
         <v>30.480176211453752</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="17">
         <v>30.728571428571428</v>
       </c>
     </row>
@@ -7427,10 +7431,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="17">
         <v>0</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="17">
         <v>0</v>
       </c>
     </row>
@@ -7471,7 +7475,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7515,10 +7519,10 @@
         <f>B2+C2</f>
         <v>182</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="16">
         <v>30.412101910828042</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="16">
         <v>33.111999999999995</v>
       </c>
     </row>
@@ -7536,10 +7540,10 @@
         <f t="shared" ref="D3:D26" si="0">B3+C3</f>
         <v>43</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="16">
         <v>29.164516129032265</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="16">
         <v>31.558333333333337</v>
       </c>
     </row>
@@ -7557,10 +7561,10 @@
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="16">
         <v>31.972000000000001</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="16">
         <v>36.026315789473685</v>
       </c>
     </row>
@@ -7578,10 +7582,10 @@
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="16">
         <v>43.449999999999996</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="16">
         <v>26.694117647058825</v>
       </c>
     </row>
@@ -7599,10 +7603,10 @@
         <f t="shared" si="0"/>
         <v>103</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="16">
         <v>46.027058823529408</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="16">
         <v>38.116666666666674</v>
       </c>
     </row>
@@ -7620,10 +7624,10 @@
         <f t="shared" si="0"/>
         <v>182</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="16">
         <v>29.726875</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="16">
         <v>38.868181818181817</v>
       </c>
     </row>
@@ -7641,10 +7645,10 @@
         <f t="shared" si="0"/>
         <v>158</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="16">
         <v>32.339259259259251</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="16">
         <v>52.304347826086953</v>
       </c>
     </row>
@@ -7662,10 +7666,10 @@
         <f t="shared" si="0"/>
         <v>164</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="16">
         <v>26.271653543307089</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="16">
         <v>51.318918918918911</v>
       </c>
     </row>
@@ -7683,10 +7687,10 @@
         <f t="shared" si="0"/>
         <v>151</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="16">
         <v>32.165492957746473</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="16">
         <v>48.2</v>
       </c>
     </row>
@@ -7704,10 +7708,10 @@
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="16">
         <v>45.813636363636355</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="16">
         <v>41.64</v>
       </c>
     </row>
@@ -7725,10 +7729,10 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="16">
         <v>52.158139534883716</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="16">
         <v>33.4</v>
       </c>
     </row>
@@ -7746,10 +7750,10 @@
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="16">
         <v>39.275714285714272</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="16">
         <v>33.299999999999997</v>
       </c>
     </row>
@@ -7767,10 +7771,10 @@
         <f t="shared" si="0"/>
         <v>183</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="16">
         <v>30.321714285714293</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="16">
         <v>26.137499999999999</v>
       </c>
     </row>
@@ -7788,10 +7792,10 @@
         <f t="shared" si="0"/>
         <v>394</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="16">
         <v>30.820680628272271</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="16">
         <v>28.016666666666662</v>
       </c>
     </row>
@@ -7809,10 +7813,10 @@
         <f t="shared" si="0"/>
         <v>761</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="16">
         <v>28.835869565217401</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="16">
         <v>42.372</v>
       </c>
     </row>
@@ -7830,10 +7834,10 @@
         <f t="shared" si="0"/>
         <v>854</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="16">
         <v>30.18298653610773</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="16">
         <v>32.259459459459471</v>
       </c>
     </row>
@@ -7851,10 +7855,10 @@
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="16">
         <v>34.191887275832627</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="16">
         <v>26.741379310344833</v>
       </c>
     </row>
@@ -7872,10 +7876,10 @@
         <f t="shared" si="0"/>
         <v>1678</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="16">
         <v>31.66940527283877</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="16">
         <v>29.065957446808518</v>
       </c>
     </row>
@@ -7893,10 +7897,10 @@
         <f t="shared" si="0"/>
         <v>1114</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="16">
         <v>35.051955307262624</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="16">
         <v>37.262499999999996</v>
       </c>
     </row>
@@ -7914,10 +7918,10 @@
         <f t="shared" si="0"/>
         <v>692</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="16">
         <v>27.867220543806656</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="16">
         <v>39.676666666666662</v>
       </c>
     </row>
@@ -7935,10 +7939,10 @@
         <f t="shared" si="0"/>
         <v>558</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="16">
         <v>28.888931297709945</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="16">
         <v>30.567647058823521</v>
       </c>
     </row>
@@ -7956,10 +7960,10 @@
         <f t="shared" si="0"/>
         <v>191</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="16">
         <v>33.654347826086962</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="16">
         <v>33.799999999999997</v>
       </c>
     </row>
@@ -7977,10 +7981,10 @@
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="16">
         <v>28.452702702702698</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="16">
         <v>41.13636363636364</v>
       </c>
     </row>
@@ -7998,10 +8002,10 @@
         <f t="shared" si="0"/>
         <v>224</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="16">
         <v>30.007772020725376</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="16">
         <v>29.741935483870964</v>
       </c>
     </row>

--- a/data/公报图表模板.xlsx
+++ b/data/公报图表模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2430" windowHeight="1140" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2430" windowHeight="1140"/>
   </bookViews>
   <sheets>
     <sheet name="分区统计" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>总</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,78 +121,6 @@
   </si>
   <si>
     <t>地闪总数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宁波</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>湖州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘉兴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绍兴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金华</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>台州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>温州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>衢州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丽水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>舟山</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>越城区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>柯桥区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上虞区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>诸暨市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嵊州市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新昌县</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杭州</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -599,8 +527,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="198183456"/>
-        <c:axId val="198184016"/>
+        <c:axId val="187629024"/>
+        <c:axId val="187629584"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -887,11 +815,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="198185136"/>
-        <c:axId val="198184576"/>
+        <c:axId val="187630704"/>
+        <c:axId val="187630144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="198183456"/>
+        <c:axId val="187629024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -997,7 +925,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198184016"/>
+        <c:crossAx val="187629584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1005,7 +933,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198184016"/>
+        <c:axId val="187629584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1051,7 +979,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1114,12 +1041,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198183456"/>
+        <c:crossAx val="187629024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="198184576"/>
+        <c:axId val="187630144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1160,7 +1087,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1225,12 +1151,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198185136"/>
+        <c:crossAx val="187630704"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="198185136"/>
+        <c:axId val="187630704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1239,7 +1165,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198184576"/>
+        <c:crossAx val="187630144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1256,7 +1182,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1624,8 +1549,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="198189056"/>
-        <c:axId val="198189616"/>
+        <c:axId val="187634624"/>
+        <c:axId val="187635184"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1936,11 +1861,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="198190736"/>
-        <c:axId val="198190176"/>
+        <c:axId val="187636304"/>
+        <c:axId val="187635744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="198189056"/>
+        <c:axId val="187634624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2045,7 +1970,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198189616"/>
+        <c:crossAx val="187635184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2053,7 +1978,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198189616"/>
+        <c:axId val="187635184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2122,7 +2047,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2185,12 +2109,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198189056"/>
+        <c:crossAx val="187634624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="198190176"/>
+        <c:axId val="187635744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2230,7 +2154,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2293,12 +2216,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198190736"/>
+        <c:crossAx val="187636304"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="198190736"/>
+        <c:axId val="187636304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2307,7 +2230,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198190176"/>
+        <c:crossAx val="187635744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2324,7 +2247,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2648,8 +2570,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="198193536"/>
-        <c:axId val="198194096"/>
+        <c:axId val="187639104"/>
+        <c:axId val="187639664"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2775,11 +2697,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="198195216"/>
-        <c:axId val="198194656"/>
+        <c:axId val="189075056"/>
+        <c:axId val="187640224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="198193536"/>
+        <c:axId val="187639104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2886,7 +2808,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198194096"/>
+        <c:crossAx val="187639664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2894,7 +2816,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198194096"/>
+        <c:axId val="187639664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3024,12 +2946,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198193536"/>
+        <c:crossAx val="187639104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="198194656"/>
+        <c:axId val="187640224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3123,12 +3045,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198195216"/>
+        <c:crossAx val="189075056"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="198195216"/>
+        <c:axId val="189075056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3137,7 +3059,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198194656"/>
+        <c:crossAx val="187640224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3478,8 +3400,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="198198016"/>
-        <c:axId val="198198576"/>
+        <c:axId val="189077856"/>
+        <c:axId val="189078416"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3605,11 +3527,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="199130832"/>
-        <c:axId val="198199136"/>
+        <c:axId val="189079536"/>
+        <c:axId val="189078976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="198198016"/>
+        <c:axId val="189077856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3716,7 +3638,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198198576"/>
+        <c:crossAx val="189078416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3724,7 +3646,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198198576"/>
+        <c:axId val="189078416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3854,12 +3776,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198198016"/>
+        <c:crossAx val="189077856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="198199136"/>
+        <c:axId val="189078976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3953,12 +3875,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199130832"/>
+        <c:crossAx val="189079536"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="199130832"/>
+        <c:axId val="189079536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3967,7 +3889,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198199136"/>
+        <c:crossAx val="189078976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6730,8 +6652,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6746,124 +6668,52 @@
       <c r="A1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>37</v>
-      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="13">
-        <v>15616</v>
-      </c>
-      <c r="C2" s="13">
-        <v>19374</v>
-      </c>
-      <c r="D2" s="13">
-        <v>3011</v>
-      </c>
-      <c r="E2" s="13">
-        <v>4161</v>
-      </c>
-      <c r="F2" s="13">
-        <v>9272</v>
-      </c>
-      <c r="G2" s="13">
-        <v>19839</v>
-      </c>
-      <c r="H2" s="13">
-        <v>25476</v>
-      </c>
-      <c r="I2" s="13">
-        <v>12942</v>
-      </c>
-      <c r="J2" s="13">
-        <v>17398</v>
-      </c>
-      <c r="K2" s="13">
-        <v>16926</v>
-      </c>
-      <c r="L2" s="13">
-        <v>1598</v>
-      </c>
-      <c r="M2" s="13">
-        <v>145613</v>
-      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="12">
-        <v>0.93</v>
-      </c>
-      <c r="C3" s="12">
-        <v>1.46</v>
-      </c>
-      <c r="D3" s="12">
-        <v>0.52</v>
-      </c>
-      <c r="E3" s="12">
-        <v>0.71</v>
-      </c>
-      <c r="F3" s="12">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="G3" s="12">
-        <v>1.82</v>
-      </c>
-      <c r="H3" s="12">
-        <v>1.97</v>
-      </c>
-      <c r="I3" s="12">
-        <v>0.82</v>
-      </c>
-      <c r="J3" s="12">
-        <v>1.97</v>
-      </c>
-      <c r="K3" s="12">
-        <v>0.98</v>
-      </c>
-      <c r="L3" s="12">
-        <v>0.12</v>
-      </c>
-      <c r="M3" s="12">
-        <v>1.1299999999999999</v>
-      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B4" s="12"/>
@@ -6883,27 +6733,13 @@
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>37</v>
-      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
@@ -6914,27 +6750,13 @@
       <c r="A6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="12">
-        <v>106</v>
-      </c>
-      <c r="C6" s="12">
-        <v>487</v>
-      </c>
-      <c r="D6" s="12">
-        <v>561</v>
-      </c>
-      <c r="E6" s="12">
-        <v>4788</v>
-      </c>
-      <c r="F6" s="12">
-        <v>1970</v>
-      </c>
-      <c r="G6" s="12">
-        <v>1360</v>
-      </c>
-      <c r="H6" s="12">
-        <v>9272</v>
-      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
@@ -6945,27 +6767,13 @@
       <c r="A7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="12">
-        <v>0.22</v>
-      </c>
-      <c r="C7" s="12">
-        <v>0.46</v>
-      </c>
-      <c r="D7" s="12">
-        <v>0.4</v>
-      </c>
-      <c r="E7" s="12">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="F7" s="12">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="G7" s="12">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="H7" s="12">
-        <v>1.1200000000000001</v>
-      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
@@ -6976,27 +6784,13 @@
       <c r="A8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="12">
-        <v>0.59</v>
-      </c>
-      <c r="C8" s="12">
-        <v>2.44</v>
-      </c>
-      <c r="D8" s="12">
-        <v>0.84</v>
-      </c>
-      <c r="E8" s="12">
-        <v>5.64</v>
-      </c>
-      <c r="F8" s="12">
-        <v>5.18</v>
-      </c>
-      <c r="G8" s="12">
-        <v>4.42</v>
-      </c>
-      <c r="H8" s="12">
-        <v>5.64</v>
-      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
@@ -7007,27 +6801,13 @@
       <c r="A9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="12">
-        <v>0.11</v>
-      </c>
-      <c r="C9" s="12">
-        <v>0.11</v>
-      </c>
-      <c r="D9" s="12">
-        <v>0.11</v>
-      </c>
-      <c r="E9" s="12">
-        <v>0.26</v>
-      </c>
-      <c r="F9" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="G9" s="12">
-        <v>0.47</v>
-      </c>
-      <c r="H9" s="12">
-        <v>0.11</v>
-      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
@@ -7038,27 +6818,13 @@
       <c r="A10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="12">
-        <v>36</v>
-      </c>
-      <c r="C10" s="12">
-        <v>42</v>
-      </c>
-      <c r="D10" s="12">
-        <v>35</v>
-      </c>
-      <c r="E10" s="12">
-        <v>57</v>
-      </c>
-      <c r="F10" s="12">
-        <v>44</v>
-      </c>
-      <c r="G10" s="12">
-        <v>45</v>
-      </c>
-      <c r="H10" s="12">
-        <v>43</v>
-      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
@@ -7069,27 +6835,13 @@
       <c r="A11" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="12">
-        <v>43</v>
-      </c>
-      <c r="C11" s="12">
-        <v>52</v>
-      </c>
-      <c r="D11" s="12">
-        <v>41</v>
-      </c>
-      <c r="E11" s="12">
-        <v>67</v>
-      </c>
-      <c r="F11" s="12">
-        <v>54</v>
-      </c>
-      <c r="G11" s="12">
-        <v>66</v>
-      </c>
-      <c r="H11" s="12">
-        <v>67</v>
-      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
@@ -7100,27 +6852,13 @@
       <c r="A12" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="12">
-        <v>30</v>
-      </c>
-      <c r="C12" s="12">
-        <v>31</v>
-      </c>
-      <c r="D12" s="12">
-        <v>30</v>
-      </c>
-      <c r="E12" s="12">
-        <v>45</v>
-      </c>
-      <c r="F12" s="12">
-        <v>36</v>
-      </c>
-      <c r="G12" s="12">
-        <v>39</v>
-      </c>
-      <c r="H12" s="12">
-        <v>30</v>
-      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
@@ -8043,7 +7781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>

--- a/data/公报图表模板.xlsx
+++ b/data/公报图表模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2430" windowHeight="1140"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2430" windowHeight="1140" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="分区统计" sheetId="1" r:id="rId1"/>
@@ -314,6 +314,67 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>2015</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>年绍兴市地闪分月统计</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
@@ -321,10 +382,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1246417190551911"/>
-          <c:y val="4.6179680940386228E-2"/>
-          <c:w val="0.76128312428099776"/>
-          <c:h val="0.75745849778853214"/>
+          <c:x val="0.10949023417527357"/>
+          <c:y val="8.9572131885881132E-2"/>
+          <c:w val="0.76561219620274734"/>
+          <c:h val="0.71406606718538879"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -527,8 +588,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="187629024"/>
-        <c:axId val="187629584"/>
+        <c:axId val="254204864"/>
+        <c:axId val="254205424"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -815,11 +876,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="187630704"/>
-        <c:axId val="187630144"/>
+        <c:axId val="254206544"/>
+        <c:axId val="254205984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="187629024"/>
+        <c:axId val="254204864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -925,7 +986,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187629584"/>
+        <c:crossAx val="254205424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -933,7 +994,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="187629584"/>
+        <c:axId val="254205424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -942,12 +1003,35 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="5000"/>
+                      <a:lumOff val="95000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="74000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="83000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="30000"/>
+                      <a:lumOff val="70000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="1"/>
+              </a:gradFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -979,6 +1063,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.120206565088455E-2"/>
+              <c:y val="0.39926788737206664"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1041,12 +1133,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187629024"/>
+        <c:crossAx val="254204864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="187630144"/>
+        <c:axId val="254205984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1087,6 +1179,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1151,12 +1244,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187630704"/>
+        <c:crossAx val="254206544"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="187630704"/>
+        <c:axId val="254206544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1165,7 +1258,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187630144"/>
+        <c:crossAx val="254205984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1182,6 +1275,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1264,6 +1358,66 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>2015</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>年绍兴市地闪分时段统计</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
@@ -1271,10 +1425,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1199837778585333"/>
-          <c:y val="4.1496746352103306E-2"/>
-          <c:w val="0.78037581060210737"/>
-          <c:h val="0.77073656576254057"/>
+          <c:x val="0.11106124877117629"/>
+          <c:y val="9.0538355677316315E-2"/>
+          <c:w val="0.77145328151475034"/>
+          <c:h val="0.72169495643732762"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1549,8 +1703,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="187634624"/>
-        <c:axId val="187635184"/>
+        <c:axId val="254268160"/>
+        <c:axId val="254268720"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1861,11 +2015,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="187636304"/>
-        <c:axId val="187635744"/>
+        <c:axId val="254269840"/>
+        <c:axId val="254269280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="187634624"/>
+        <c:axId val="254268160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1970,7 +2124,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187635184"/>
+        <c:crossAx val="254268720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1978,7 +2132,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="187635184"/>
+        <c:axId val="254268720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2047,6 +2201,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2109,12 +2264,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187634624"/>
+        <c:crossAx val="254268160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="187635744"/>
+        <c:axId val="254269280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2154,6 +2309,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2216,12 +2372,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187636304"/>
+        <c:crossAx val="254269840"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="187636304"/>
+        <c:axId val="254269840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2230,7 +2386,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187635744"/>
+        <c:crossAx val="254269280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2247,6 +2403,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2327,17 +2484,77 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>2015</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>年绍兴市负闪强度分布</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14941426071741032"/>
-          <c:y val="9.8148148148148165E-2"/>
-          <c:w val="0.69596303587051622"/>
-          <c:h val="0.6482713619130942"/>
+          <c:x val="0.14108092738407702"/>
+          <c:y val="0.10740740740740738"/>
+          <c:w val="0.71262970253718283"/>
+          <c:h val="0.6390121026538349"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2570,8 +2787,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="187639104"/>
-        <c:axId val="187639664"/>
+        <c:axId val="254272640"/>
+        <c:axId val="254273200"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2697,11 +2914,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="189075056"/>
-        <c:axId val="187640224"/>
+        <c:axId val="254274320"/>
+        <c:axId val="254273760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="187639104"/>
+        <c:axId val="254272640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2808,7 +3025,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187639664"/>
+        <c:crossAx val="254273200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2816,7 +3033,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="187639664"/>
+        <c:axId val="254273200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2946,12 +3163,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187639104"/>
+        <c:crossAx val="254272640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="187640224"/>
+        <c:axId val="254273760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3045,12 +3262,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189075056"/>
+        <c:crossAx val="254274320"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="189075056"/>
+        <c:axId val="254274320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3059,7 +3276,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187640224"/>
+        <c:crossAx val="254273760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3157,17 +3374,96 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>2015</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>年绍兴市</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>正</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>闪强度分布</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14941426071741032"/>
-          <c:y val="9.8148148148148165E-2"/>
-          <c:w val="0.69596303587051622"/>
-          <c:h val="0.6482713619130942"/>
+          <c:x val="0.11885870516185477"/>
+          <c:y val="0.11203703703703703"/>
+          <c:w val="0.74318525809273839"/>
+          <c:h val="0.63438247302420536"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -3400,8 +3696,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="189077856"/>
-        <c:axId val="189078416"/>
+        <c:axId val="252550256"/>
+        <c:axId val="252550816"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3527,11 +3823,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="189079536"/>
-        <c:axId val="189078976"/>
+        <c:axId val="252551936"/>
+        <c:axId val="252551376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="189077856"/>
+        <c:axId val="252550256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3638,7 +3934,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189078416"/>
+        <c:crossAx val="252550816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3646,7 +3942,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="189078416"/>
+        <c:axId val="252550816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3776,12 +4072,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189077856"/>
+        <c:crossAx val="252550256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="189078976"/>
+        <c:axId val="252551376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3875,12 +4171,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189079536"/>
+        <c:crossAx val="252551936"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="189079536"/>
+        <c:axId val="252551936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3889,7 +4185,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189078976"/>
+        <c:crossAx val="252551376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6330,14 +6626,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6652,7 +6948,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -6895,7 +7191,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7213,7 +7509,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7781,8 +8077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/data/公报图表模板.xlsx
+++ b/data/公报图表模板.xlsx
@@ -345,7 +345,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -588,8 +587,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="254204864"/>
-        <c:axId val="254205424"/>
+        <c:axId val="147837600"/>
+        <c:axId val="147843200"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -876,11 +875,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="254206544"/>
-        <c:axId val="254205984"/>
+        <c:axId val="147835920"/>
+        <c:axId val="147834800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="254204864"/>
+        <c:axId val="147837600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -986,7 +985,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254205424"/>
+        <c:crossAx val="147843200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -994,7 +993,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="254205424"/>
+        <c:axId val="147843200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1133,12 +1132,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254204864"/>
+        <c:crossAx val="147837600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="254205984"/>
+        <c:axId val="147834800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1179,7 +1178,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1244,12 +1242,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254206544"/>
+        <c:crossAx val="147835920"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="254206544"/>
+        <c:axId val="147835920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1258,7 +1256,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="254205984"/>
+        <c:crossAx val="147834800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1275,7 +1273,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1388,7 +1385,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1703,8 +1699,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="254268160"/>
-        <c:axId val="254268720"/>
+        <c:axId val="147832560"/>
+        <c:axId val="147836480"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2015,11 +2011,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="254269840"/>
-        <c:axId val="254269280"/>
+        <c:axId val="147832000"/>
+        <c:axId val="147840960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="254268160"/>
+        <c:axId val="147832560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2124,7 +2120,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254268720"/>
+        <c:crossAx val="147836480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2132,7 +2128,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="254268720"/>
+        <c:axId val="147836480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2201,7 +2197,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2264,12 +2259,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254268160"/>
+        <c:crossAx val="147832560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="254269280"/>
+        <c:axId val="147840960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2309,7 +2304,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2372,12 +2366,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254269840"/>
+        <c:crossAx val="147832000"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="254269840"/>
+        <c:axId val="147832000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2386,7 +2380,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="254269280"/>
+        <c:crossAx val="147840960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2403,7 +2397,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2787,8 +2780,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="254272640"/>
-        <c:axId val="254273200"/>
+        <c:axId val="147833120"/>
+        <c:axId val="147842080"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2914,11 +2907,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="254274320"/>
-        <c:axId val="254273760"/>
+        <c:axId val="149679120"/>
+        <c:axId val="147835360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="254272640"/>
+        <c:axId val="147833120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3025,7 +3018,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254273200"/>
+        <c:crossAx val="147842080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3033,7 +3026,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="254273200"/>
+        <c:axId val="147842080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3163,12 +3156,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254272640"/>
+        <c:crossAx val="147833120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="254273760"/>
+        <c:axId val="147835360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3262,12 +3255,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254274320"/>
+        <c:crossAx val="149679120"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="254274320"/>
+        <c:axId val="149679120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3276,7 +3269,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="254273760"/>
+        <c:crossAx val="147835360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3696,8 +3689,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="252550256"/>
-        <c:axId val="252550816"/>
+        <c:axId val="149687520"/>
+        <c:axId val="149689760"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3823,11 +3816,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="252551936"/>
-        <c:axId val="252551376"/>
+        <c:axId val="149690880"/>
+        <c:axId val="149689200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="252550256"/>
+        <c:axId val="149687520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3934,7 +3927,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="252550816"/>
+        <c:crossAx val="149689760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3942,7 +3935,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="252550816"/>
+        <c:axId val="149689760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4072,12 +4065,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="252550256"/>
+        <c:crossAx val="149687520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="252551376"/>
+        <c:axId val="149689200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4171,12 +4164,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="252551936"/>
+        <c:crossAx val="149690880"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="252551936"/>
+        <c:axId val="149690880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4185,7 +4178,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="252551376"/>
+        <c:crossAx val="149689200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6596,13 +6589,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
+      <xdr:colOff>466724</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>438149</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>52387</xdr:rowOff>
     </xdr:to>
@@ -6631,8 +6624,8 @@
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -8077,8 +8070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
